--- a/Ball stabilization mechanism/3D CAD files/Mechanical Part CAD files/mechanism part list.xlsx
+++ b/Ball stabilization mechanism/3D CAD files/Mechanical Part CAD files/mechanism part list.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NTUST-Mechanical-Design\Ball stabilization mechanism\3D CAD files\Mechanical Part CAD files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E2410-4988-4CF0-AEA9-BB41D174E4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>Balance Plate</t>
+  </si>
+  <si>
+    <t>4mm L19 shaft bushing</t>
+  </si>
+  <si>
+    <t>M6x1 rod joint</t>
+  </si>
+  <si>
+    <t>M6x1 L200 Threaded rod</t>
+  </si>
+  <si>
+    <t>HD004019001</t>
+  </si>
+  <si>
+    <t>HD6x1006001</t>
+  </si>
+  <si>
+    <t>HS6x1200001</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Base Plate</t>
+  </si>
+  <si>
+    <t>MS250003001</t>
+  </si>
+  <si>
+    <t>MS250003002</t>
+  </si>
+  <si>
+    <t>Base Support</t>
+  </si>
+  <si>
+    <t>MS060050001</t>
+  </si>
+  <si>
+    <t>SAE304 Stainless Steel</t>
+  </si>
+  <si>
+    <t>6061 Aluminum</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Stock Type</t>
+  </si>
+  <si>
+    <t>Hardware (Supplied by manufacturer)</t>
+  </si>
+  <si>
+    <t>Cylindrical (Machined part)</t>
+  </si>
+  <si>
+    <t>Strength (kg)</t>
+  </si>
+  <si>
+    <t>Sheet Metal (Cut and bent)</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>MS006020001</t>
+  </si>
+  <si>
+    <t>S20C Steel</t>
+  </si>
+  <si>
+    <t>Φ6 External Circlip</t>
+  </si>
+  <si>
+    <t>Φ6 L23 rod pin</t>
+  </si>
+  <si>
+    <t>HS006007001</t>
+  </si>
+  <si>
+    <t>Φ6 L4 Spacer</t>
+  </si>
+  <si>
+    <t>ABS or Nylon plastic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>12.1" Touchscreen</t>
+  </si>
+  <si>
+    <t>HS200260001</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Various (Supplied by manufacturer)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00\ &quot;g&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +151,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="GOST Common"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,16 +211,186 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.00\ &quot;g&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.00\ &quot;kg&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GOST Common"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +401,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E0A10DB-5FDC-4B98-ADE9-B7F1BC7B39CA}" name="Table1" displayName="Table1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:G1048575" xr:uid="{9E0A10DB-5FDC-4B98-ADE9-B7F1BC7B39CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition sortBy="cellColor" ref="G1:G1048575" dxfId="1"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{392BAF51-B6D6-4EA9-8878-65B8FCBD7648}" name="Part Name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4D157234-1FB3-43B0-BBEA-7EB722FE5DFB}" name="Part ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9BE2D0EC-E0BA-43EA-A285-1776CA843B64}" name="Material" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D77C8C4D-1EEF-48F4-9E9C-91D9A5777988}" name="Stock Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A2D745A3-F72E-4F67-AB74-0C80C66FE092}" name="Strength (kg)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{16BD6BA1-2129-4FC8-BBD0-A4F047B39F33}" name="Weight (g)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{01964ABE-3AA0-405B-ABC8-AEB4BDDB2C36}" name="Status" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +684,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>470</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>